--- a/results/risposte.xlsx
+++ b/results/risposte.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="161">
   <si>
     <t>Informazioni cronologiche</t>
   </si>
@@ -585,7 +585,7 @@
     <t>andrea</t>
   </si>
   <si>
-    <t>professore di liceo</t>
+    <t>High School Professor</t>
   </si>
   <si>
     <t>matteo</t>
@@ -601,6 +601,33 @@
   </si>
   <si>
     <t>Developer</t>
+  </si>
+  <si>
+    <t>diego</t>
+  </si>
+  <si>
+    <t>marco</t>
+  </si>
+  <si>
+    <t>simone</t>
+  </si>
+  <si>
+    <t>davide</t>
+  </si>
+  <si>
+    <t>arianna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author </t>
+  </si>
+  <si>
+    <t>valerio</t>
+  </si>
+  <si>
+    <t>daniel</t>
+  </si>
+  <si>
+    <t>susanna</t>
   </si>
 </sst>
 </file>
@@ -927,7 +954,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:DU10" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:DU18" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="125">
     <tableColumn name="Informazioni cronologiche" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -4596,380 +4623,3252 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18">
+      <c r="A10" s="15">
         <v>45702.77956980324</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="F10" s="19" t="s">
+      <c r="E10" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="J10" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="K10" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="L10" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="S10" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="T10" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="U10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="V10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="W10" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="X10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y10" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z10" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA10" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB10" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="AC10" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="AD10" s="19">
+      <c r="G10" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="J10" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="K10" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="W10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y10" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z10" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="AD10" s="16">
         <v>7.0</v>
       </c>
-      <c r="AE10" s="19">
+      <c r="AE10" s="16">
         <v>7.0</v>
       </c>
-      <c r="AF10" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="AG10" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="AH10" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ10" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK10" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL10" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN10" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO10" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AP10" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ10" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AR10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT10" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU10" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AV10" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW10" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="AX10" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="AY10" s="19">
+      <c r="AF10" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="AG10" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="AH10" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ10" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK10" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN10" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ10" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT10" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW10" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="AX10" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="AY10" s="16">
         <v>9.0</v>
       </c>
-      <c r="AZ10" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="BA10" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="BB10" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="BC10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="BE10" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="BF10" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG10" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="BH10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="BJ10" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="BK10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="BL10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="BM10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="BN10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="BO10" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="BP10" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="BQ10" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR10" s="19" t="s">
+      <c r="AZ10" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="BA10" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="BB10" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="BC10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="BE10" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF10" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="BL10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="BM10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="BO10" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR10" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="BS10" s="19">
+      <c r="BS10" s="16">
         <v>8.0</v>
       </c>
-      <c r="BT10" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="BU10" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="BV10" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="BW10" s="19">
+      <c r="BT10" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="BU10" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="BV10" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="BW10" s="16">
         <v>6.0</v>
       </c>
-      <c r="BX10" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="BY10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="BZ10" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="CA10" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="CB10" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="CC10" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="CD10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="CE10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="CF10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="CG10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="CH10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="CI10" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="CJ10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="CK10" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="CL10" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="CM10" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="CN10" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="CO10" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="CP10" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="CQ10" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="CR10" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="CS10" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="CT10" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="CU10" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="CV10" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="CW10" s="19" t="s">
+      <c r="BX10" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="BY10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="BZ10" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="CA10" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB10" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="CC10" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="CE10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="CH10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="CI10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="CJ10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK10" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CL10" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CM10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="CN10" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="CO10" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="CP10" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="CQ10" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="CR10" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="CS10" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="CT10" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="CU10" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="CV10" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="CW10" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="CX10" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="CY10" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="CZ10" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="DA10" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="DB10" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="DC10" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="DD10" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="DE10" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="DF10" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="DG10" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="DH10" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="DI10" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="DJ10" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="DK10" s="19">
+      <c r="CX10" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="CY10" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="CZ10" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="DA10" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="DB10" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="DC10" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="DD10" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="DE10" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="DF10" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="DG10" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="DH10" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="DI10" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="DJ10" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="DK10" s="16">
         <v>155.0</v>
       </c>
-      <c r="DL10" s="19">
+      <c r="DL10" s="16">
         <v>391.0</v>
       </c>
-      <c r="DM10" s="19">
+      <c r="DM10" s="16">
         <v>60.0</v>
       </c>
-      <c r="DN10" s="19">
+      <c r="DN10" s="16">
         <v>373.0</v>
       </c>
-      <c r="DO10" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="DP10" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="DQ10" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="DR10" s="19">
+      <c r="DO10" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="DP10" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="DQ10" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="DR10" s="16">
         <v>8.0</v>
       </c>
-      <c r="DS10" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="DT10" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="DU10" s="20">
-        <v>4.0</v>
+      <c r="DS10" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="DT10" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="DU10" s="17">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11">
+        <v>45705.63842427083</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="J11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="K11" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="L11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="U11" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AF11" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AG11" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AH11" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN11" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW11" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="AX11" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="AY11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AZ11" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="BA11" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="BB11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="BC11" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD11" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE11" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF11" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG11" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BH11" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK11" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="BL11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="BO11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR11" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="BT11" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="BU11" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="BV11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="BW11" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="BX11" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="BY11" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="CA11" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="CC11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CD11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="CE11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CF11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="CG11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CH11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="CJ11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CK11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CL11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CM11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CN11" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="CO11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="CP11" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CQ11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="CR11" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CS11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="CT11" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CU11" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CV11" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="CW11" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="CX11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="CY11" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CZ11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="DA11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="DB11" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="DC11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="DD11" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="DE11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="DF11" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DG11" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="DH11" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="DI11" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="DJ11" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DK11" s="13">
+        <v>125.0</v>
+      </c>
+      <c r="DL11" s="13">
+        <v>130.0</v>
+      </c>
+      <c r="DM11" s="13">
+        <v>195.0</v>
+      </c>
+      <c r="DN11" s="13">
+        <v>123.0</v>
+      </c>
+      <c r="DO11" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DP11" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="DQ11" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DR11" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DS11" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DT11" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DU11" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="15">
+        <v>45705.69641212963</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="I12" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="J12" s="16">
+        <v>8.0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>7.0</v>
+      </c>
+      <c r="L12" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>8.0</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>8.0</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="AG12" s="16">
+        <v>7.0</v>
+      </c>
+      <c r="AH12" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI12" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ12" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK12" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO12" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW12" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="AX12" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="AY12" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="AZ12" s="16">
+        <v>10.0</v>
+      </c>
+      <c r="BA12" s="16">
+        <v>9.0</v>
+      </c>
+      <c r="BB12" s="16">
+        <v>9.0</v>
+      </c>
+      <c r="BC12" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD12" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF12" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ12" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="BL12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="BR12" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS12" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="BT12" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="BU12" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="BV12" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="BW12" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="BX12" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="BY12" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="CA12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB12" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="CC12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="CD12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="CE12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CF12" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="CG12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="CH12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="CI12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="CJ12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CL12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CM12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="CN12" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="CO12" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="CP12" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="CQ12" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="CR12" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="CS12" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="CT12" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="CU12" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="CV12" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="CW12" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="CX12" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="CY12" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="CZ12" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="DA12" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="DB12" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="DC12" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="DD12" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="DE12" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="DF12" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="DG12" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="DH12" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="DI12" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="DJ12" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="DK12" s="16">
+        <v>79.0</v>
+      </c>
+      <c r="DL12" s="16">
+        <v>196.0</v>
+      </c>
+      <c r="DM12" s="16">
+        <v>65.0</v>
+      </c>
+      <c r="DN12" s="16">
+        <v>56.0</v>
+      </c>
+      <c r="DO12" s="16">
+        <v>56.0</v>
+      </c>
+      <c r="DP12" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="DQ12" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="DR12" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="DS12" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="DT12" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="DU12" s="17">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11">
+        <v>45706.51151188657</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="K13" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="L13" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AF13" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="AG13" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="AH13" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI13" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ13" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM13" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN13" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ13" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW13" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AX13" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AY13" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AZ13" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="BA13" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="BB13" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="BC13" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD13" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH13" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK13" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="BL13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN13" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="BO13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR13" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS13" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="BT13" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="BU13" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="BV13" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="BW13" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="BX13" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="BY13" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="BZ13" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="CA13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="CC13" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD13" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="CE13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CF13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="CG13" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="CH13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="CJ13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CK13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CL13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CM13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="CN13" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="CO13" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CP13" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="CQ13" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="CR13" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="CS13" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="CT13" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CU13" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CV13" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CW13" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="CX13" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CY13" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="CZ13" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="DA13" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="DB13" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="DC13" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="DD13" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="DE13" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="DF13" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DG13" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="DH13" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="DI13" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="DJ13" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="DK13" s="13">
+        <v>117.0</v>
+      </c>
+      <c r="DL13" s="13">
+        <v>364.0</v>
+      </c>
+      <c r="DM13" s="13">
+        <v>247.0</v>
+      </c>
+      <c r="DN13" s="13">
+        <v>176.0</v>
+      </c>
+      <c r="DO13" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DP13" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="DQ13" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="DR13" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DS13" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DT13" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="DU13" s="14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="15">
+        <v>45706.51424859954</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="J14" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="X14" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z14" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="AC14" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="AD14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AE14" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="AF14" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="AG14" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="AH14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL14" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM14" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN14" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP14" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ14" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS14" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU14" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW14" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="AX14" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="AY14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AZ14" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="BA14" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="BB14" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="BC14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BH14" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI14" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK14" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="BL14" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN14" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP14" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR14" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="CN14" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="CO14" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="CP14" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="CQ14" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="CR14" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="CS14" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="CT14" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="CU14" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="CV14" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="CW14" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="DA14" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="DB14" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="DC14" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="DD14" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="DE14" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="DF14" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="DG14" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="DH14" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="DI14" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="DJ14" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="DK14" s="16">
+        <v>79.0</v>
+      </c>
+      <c r="DL14" s="16">
+        <v>196.0</v>
+      </c>
+      <c r="DM14" s="16">
+        <v>127.0</v>
+      </c>
+      <c r="DN14" s="16">
+        <v>56.0</v>
+      </c>
+      <c r="DO14" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="DP14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="DQ14" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="DR14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="DS14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="DT14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="DU14" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11">
+        <v>45706.597401875</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z15" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA15" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="AD15" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AE15" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="AF15" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AG15" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="AH15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL15" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP15" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS15" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW15" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AX15" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AY15" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AZ15" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="BA15" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="BB15" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="BC15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BH15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="BL15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="BO15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ15" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="BR15" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS15" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="BT15" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="BU15" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="BV15" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="BW15" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="BX15" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="BY15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="CA15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="CC15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="CE15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CF15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="CH15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="CI15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="CJ15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CL15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CM15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="CN15" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CO15" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CP15" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="CQ15" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="CR15" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CS15" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="CT15" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="CU15" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="CV15" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="CW15" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="CX15" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="CY15" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="CZ15" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="DA15" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="DB15" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DC15" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="DD15" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="DE15" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="DF15" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DG15" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="DH15" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DI15" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="DJ15" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="DK15" s="13">
+        <v>228.0</v>
+      </c>
+      <c r="DL15" s="13">
+        <v>366.0</v>
+      </c>
+      <c r="DM15" s="13">
+        <v>205.0</v>
+      </c>
+      <c r="DN15" s="13">
+        <v>124.0</v>
+      </c>
+      <c r="DO15" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DP15" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="DQ15" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="DR15" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="DS15" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="DT15" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DU15" s="14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="15">
+        <v>45706.61073719907</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="K16" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="L16" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="R16" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="AC16" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AD16" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AE16" s="16">
+        <v>7.0</v>
+      </c>
+      <c r="AF16" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="AG16" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="AH16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI16" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM16" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ16" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR16" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW16" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="AX16" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AY16" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AZ16" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="BA16" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="BB16" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="BC16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BH16" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="BL16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR16" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS16" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="BT16" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="BU16" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="BV16" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="BW16" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="BX16" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="BY16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="CA16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="CC16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD16" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="CE16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CF16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="CG16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="CH16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="CJ16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="CK16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CL16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CM16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="CN16" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="CO16" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="CP16" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="CQ16" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="CR16" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="CS16" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="CT16" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="CU16" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="CV16" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="CW16" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="CX16" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="CY16" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="CZ16" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="DA16" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="DB16" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="DC16" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="DD16" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="DE16" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="DF16" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="DG16" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="DH16" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="DI16" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="DJ16" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="DK16" s="16">
+        <v>98.0</v>
+      </c>
+      <c r="DL16" s="16">
+        <v>342.0</v>
+      </c>
+      <c r="DM16" s="16">
+        <v>177.0</v>
+      </c>
+      <c r="DN16" s="16">
+        <v>100.0</v>
+      </c>
+      <c r="DO16" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="DP16" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="DQ16" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="DR16" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="DS16" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="DT16" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="DU16" s="17">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11">
+        <v>45706.67214400463</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="W17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AC17" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="AD17" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="AE17" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="AF17" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="AG17" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AH17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI17" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW17" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AX17" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AY17" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AZ17" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="BA17" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="BB17" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="BC17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD17" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF17" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG17" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BH17" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="BL17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR17" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS17" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="BT17" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="BU17" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="BV17" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="BW17" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="BX17" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="BY17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="BZ17" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="CA17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="CC17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="CD17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="CE17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="CH17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI17" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="CJ17" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CL17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CM17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="CN17" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CO17" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CP17" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="CQ17" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CR17" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="CS17" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="CT17" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CU17" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="CV17" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="CW17" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="CX17" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="CY17" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="CZ17" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="DA17" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="DB17" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DC17" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="DD17" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DE17" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="DF17" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DG17" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="DH17" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="DI17" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="DJ17" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DK17" s="13">
+        <v>97.0</v>
+      </c>
+      <c r="DL17" s="13">
+        <v>333.0</v>
+      </c>
+      <c r="DM17" s="13">
+        <v>145.0</v>
+      </c>
+      <c r="DN17" s="13">
+        <v>92.0</v>
+      </c>
+      <c r="DO17" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DP17" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="DQ17" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="DR17" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="DS17" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="DT17" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="DU17" s="14">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="18">
+        <v>45708.62036994213</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="R18" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB18" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AC18" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="AD18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AE18" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AF18" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AG18" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="AH18" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI18" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM18" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW18" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AX18" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AY18" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AZ18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="BA18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="BB18" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="BC18" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD18" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH18" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI18" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK18" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="BL18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="BR18" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="CN18" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="CO18" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="CP18" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="CQ18" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="CR18" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="CS18" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="CT18" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="CU18" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="CV18" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="CW18" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="DA18" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="DB18" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="DC18" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="DD18" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="DE18" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="DF18" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="DG18" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="DH18" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="DI18" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="DJ18" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="DK18" s="19">
+        <v>100.0</v>
+      </c>
+      <c r="DL18" s="19">
+        <v>400.0</v>
+      </c>
+      <c r="DM18" s="19">
+        <v>88.0</v>
+      </c>
+      <c r="DN18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="DO18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="DP18" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="DQ18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="DR18" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="DS18" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="DT18" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="DU18" s="20">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
